--- a/excel/MLB_2017-08-09.xlsx
+++ b/excel/MLB_2017-08-09.xlsx
@@ -1965,9 +1965,9 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -2427,9 +2427,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle builtinId="0" name="Normal" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="2"/>
   </cellStyles>
   <dxfs count="2022">
     <dxf>
@@ -31594,7 +31594,7 @@
       <formula>$E$38</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -33126,29 +33126,29 @@
         <v>9</v>
       </c>
       <c r="CS10" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT10" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="154" t="s">
+      <c r="CU10" s="38" t="s">
         <v>8</v>
-      </c>
-      <c r="CU10" s="38" t="s">
-        <v>9</v>
       </c>
       <c r="CV10" s="165" t="n"/>
       <c r="CW10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="CX10" s="154" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY10" s="154" t="s">
         <v>8</v>
-      </c>
-      <c r="CY10" s="154" t="s">
-        <v>9</v>
       </c>
       <c r="CZ10" s="154" t="s">
         <v>8</v>
       </c>
       <c r="DA10" s="38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB10" s="14" t="n"/>
       <c r="DD10" s="13" t="n"/>
@@ -33410,16 +33410,16 @@
         <v>93</v>
       </c>
       <c r="CR11" s="156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS11" s="156" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT11" s="156" t="n">
         <v>2</v>
       </c>
-      <c r="CT11" s="156" t="n">
-        <v>4</v>
-      </c>
       <c r="CU11" s="144" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CV11" s="75" t="n"/>
       <c r="CW11" s="143" t="s">
@@ -33429,10 +33429,10 @@
         <v>4</v>
       </c>
       <c r="CY11" s="156" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CZ11" s="156" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DA11" s="144" t="n">
         <v>3</v>
@@ -43465,7 +43465,7 @@
       <formula>"BET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
@@ -55186,7 +55186,7 @@
       <formula>"BET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -60398,6 +60398,6 @@
       <formula>"INCOMP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>